--- a/city.xlsx
+++ b/city.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chunrong\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chunrong\Documents\WeatherForecastApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3479755D-4F27-4E92-9382-AFF9221B3BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B400D-D262-436C-8332-272727FE4BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,147 +25,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>Cheras</t>
-  </si>
-  <si>
-    <t>Kapar</t>
-  </si>
-  <si>
-    <t>Petaling Jaya</t>
-  </si>
-  <si>
-    <t>Puchong</t>
-  </si>
-  <si>
-    <t>Hulu Langat</t>
-  </si>
-  <si>
-    <t>Ampang</t>
-  </si>
-  <si>
-    <t>Balakong</t>
-  </si>
-  <si>
-    <t>Bandar Baru Bangi</t>
-  </si>
-  <si>
-    <t>Bandar Tun Hussein Onn</t>
-  </si>
-  <si>
-    <t>Beranang</t>
-  </si>
-  <si>
-    <t>Kajang</t>
-  </si>
-  <si>
-    <t>Semenyih</t>
-  </si>
-  <si>
-    <t>Kuala Selangor</t>
-  </si>
-  <si>
-    <t>Bestari Jaya</t>
-  </si>
-  <si>
-    <t>Ijok</t>
-  </si>
-  <si>
-    <t>Jeram</t>
-  </si>
-  <si>
-    <t>Puncak Alam</t>
-  </si>
-  <si>
-    <t>Sungai Buloh</t>
-  </si>
-  <si>
-    <t>Subang Jaya</t>
-  </si>
-  <si>
     <t>Shah Alam</t>
   </si>
   <si>
-    <t>Klang</t>
-  </si>
-  <si>
-    <t>Bandar Baru Klang</t>
-  </si>
-  <si>
-    <t>Pelabuhan Klang</t>
-  </si>
-  <si>
-    <t>Batu Caves</t>
-  </si>
-  <si>
-    <t>Gombak</t>
-  </si>
-  <si>
-    <t>Rawang</t>
-  </si>
-  <si>
-    <t>Selayang</t>
-  </si>
-  <si>
-    <t>Setapak</t>
-  </si>
-  <si>
-    <t>Kundang</t>
-  </si>
-  <si>
-    <t>Kuang</t>
-  </si>
-  <si>
-    <t>Cyberjaya</t>
-  </si>
-  <si>
-    <t>Dengkil</t>
-  </si>
-  <si>
-    <t>Sepang</t>
-  </si>
-  <si>
-    <t>Sungai Pelek</t>
-  </si>
-  <si>
-    <t>Banting</t>
-  </si>
-  <si>
-    <t>Bandar Saujana Putra</t>
-  </si>
-  <si>
-    <t>Morib</t>
-  </si>
-  <si>
-    <t>Tanjung Sepat</t>
-  </si>
-  <si>
-    <t>Teluk Panglima Garang</t>
-  </si>
-  <si>
-    <t>Batang Kali</t>
-  </si>
-  <si>
-    <t>Serendah</t>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Labuan</t>
+  </si>
+  <si>
+    <t>Kuching</t>
+  </si>
+  <si>
+    <t>Pulau Pinang</t>
+  </si>
+  <si>
+    <t>Putrajaya</t>
+  </si>
+  <si>
+    <t>Alor Setar</t>
+  </si>
+  <si>
+    <t>Seremban</t>
+  </si>
+  <si>
+    <t>Johor Bahru</t>
+  </si>
+  <si>
+    <t>Kuala Terengganu</t>
+  </si>
+  <si>
+    <t>Pahang</t>
+  </si>
+  <si>
+    <t>Kota Kinabalu</t>
+  </si>
+  <si>
+    <t>Ipoh</t>
+  </si>
+  <si>
+    <t>Kota Bahru</t>
+  </si>
+  <si>
+    <t>Perlis</t>
+  </si>
+  <si>
+    <t>Melaka</t>
+  </si>
+  <si>
+    <t>Port Dickson</t>
+  </si>
+  <si>
+    <t>Taiping</t>
+  </si>
+  <si>
+    <t>Segamat</t>
+  </si>
+  <si>
+    <t>Kuala Pilah</t>
+  </si>
+  <si>
+    <t>Sandakan</t>
   </si>
   <si>
     <t>Sabak Bernam</t>
   </si>
   <si>
-    <t>Sekinchan</t>
-  </si>
-  <si>
-    <t>Sungai Besar</t>
-  </si>
-  <si>
-    <t>Sungai Air Tawar</t>
-  </si>
-  <si>
-    <t>Kuala Lumpur</t>
+    <t>Kota Tinggi</t>
+  </si>
+  <si>
+    <t>Teluk Intan</t>
+  </si>
+  <si>
+    <t>Kuantan</t>
+  </si>
+  <si>
+    <t>Bentong</t>
+  </si>
+  <si>
+    <t>Raub</t>
   </si>
 </sst>
 </file>
@@ -483,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +455,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +463,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +487,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +519,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +527,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +543,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +551,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +567,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +575,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +591,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +599,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +607,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +615,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +631,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +639,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +647,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,167 +655,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
         <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
